--- a/output/月度核算报表_Phase2.xlsx
+++ b/output/月度核算报表_Phase2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="平台收入汇总" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="仓库成本汇总" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="综合损益概览" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="限制说明" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="平台收入汇总" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="仓库成本汇总" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="综合损益概览" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="限制说明" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,47 +437,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>平台</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>店铺</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>站点</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>月份</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>币种</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>交易数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>参与计算</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>平台净结算</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>提现金额</t>
         </is>
@@ -911,7 +923,11 @@
           <t>2025AprMonthlyTransaction (1)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>2025-04</t>
@@ -919,7 +935,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -985,7 +1001,11 @@
           <t>2025AprMonthlyTransaction</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>2025-04</t>
@@ -993,7 +1013,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1020,7 +1040,11 @@
           <t>2025AprMonthlyUnifiedTransaction</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2025-04</t>
@@ -3645,13 +3669,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G83" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H83" t="n">
-        <v>5424.53</v>
+        <v>5414.53</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3918,13 +3942,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>10626</v>
+        <v>10629</v>
       </c>
       <c r="G90" t="n">
-        <v>10626</v>
+        <v>10629</v>
       </c>
       <c r="H90" t="n">
-        <v>442475.03</v>
+        <v>442193.33</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -3977,7 +4001,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>IDOHOMEUS</t>
+          <t>Boutique local 11月 Detail-1764659035833-e7d1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3985,20 +4009,24 @@
           <t>GLOBAL</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="G92" t="n">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="H92" t="n">
-        <v>351.89</v>
+        <v>7085.91</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4012,7 +4040,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>QingDaoQianMiao -11月</t>
+          <t>IDOHOMEUS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4027,17 +4055,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4806</v>
+        <v>60</v>
       </c>
       <c r="G93" t="n">
-        <v>4806</v>
+        <v>60</v>
       </c>
       <c r="H93" t="n">
-        <v>199012.95</v>
+        <v>351.89</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4051,7 +4079,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TianJiNengYuan</t>
+          <t>QingDaoQianMiao -11月</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4070,13 +4098,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2701</v>
+        <v>4806</v>
       </c>
       <c r="G94" t="n">
-        <v>2701</v>
+        <v>4806</v>
       </c>
       <c r="H94" t="n">
-        <v>102007.38</v>
+        <v>199012.95</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -4090,7 +4118,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TJnyhameUS</t>
+          <t>TianJiNengYuan</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4109,13 +4137,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>30</v>
+        <v>2702</v>
       </c>
       <c r="G95" t="n">
-        <v>30</v>
+        <v>2702</v>
       </c>
       <c r="H95" t="n">
-        <v>1324.52</v>
+        <v>101927.38</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4129,7 +4157,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tjnyhome</t>
+          <t>TJnyhameUS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4148,13 +4176,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3536</v>
+        <v>30</v>
       </c>
       <c r="G96" t="n">
-        <v>3536</v>
+        <v>30</v>
       </c>
       <c r="H96" t="n">
-        <v>147691.1</v>
+        <v>1324.52</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -4168,7 +4196,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>YIDUQQ</t>
+          <t>Tjnyhome</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4187,13 +4215,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>9357</v>
+        <v>3536</v>
       </c>
       <c r="G97" t="n">
-        <v>9357</v>
+        <v>3536</v>
       </c>
       <c r="H97" t="n">
-        <v>347735.32</v>
+        <v>147691.1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -4207,7 +4235,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>All F Home</t>
+          <t>YIDUQQ</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4217,22 +4245,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2182</v>
+        <v>9358</v>
       </c>
       <c r="G98" t="n">
-        <v>2182</v>
+        <v>9358</v>
       </c>
       <c r="H98" t="n">
-        <v>10534.58</v>
+        <v>347655.32</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -4246,7 +4274,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Boutique local</t>
+          <t>All F Home</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4261,17 +4289,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>176</v>
+        <v>2182</v>
       </c>
       <c r="G99" t="n">
-        <v>176</v>
+        <v>2182</v>
       </c>
       <c r="H99" t="n">
-        <v>3594.83</v>
+        <v>10534.58</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -4285,7 +4313,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IDOHOMEUS</t>
+          <t>Boutique local</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4293,20 +4321,24 @@
           <t>GLOBAL</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="G100" t="n">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="H100" t="n">
-        <v>180.03</v>
+        <v>3594.83</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -4320,7 +4352,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>QingDaoQianMiao</t>
+          <t>IDOHOMEUS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4335,17 +4367,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>7466</v>
+        <v>48</v>
       </c>
       <c r="G101" t="n">
-        <v>7466</v>
+        <v>48</v>
       </c>
       <c r="H101" t="n">
-        <v>223838.48</v>
+        <v>180.03</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4359,7 +4391,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TianJiNengYuan</t>
+          <t>QingDaoQianMiao</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4378,13 +4410,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4207</v>
+        <v>7467</v>
       </c>
       <c r="G102" t="n">
-        <v>4207</v>
+        <v>7467</v>
       </c>
       <c r="H102" t="n">
-        <v>153328.59</v>
+        <v>223710.08</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -4398,7 +4430,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TJnyhameUS</t>
+          <t>TianJiNengYuan</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4417,13 +4449,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>36</v>
+        <v>4207</v>
       </c>
       <c r="G103" t="n">
-        <v>36</v>
+        <v>4207</v>
       </c>
       <c r="H103" t="n">
-        <v>797.4299999999999</v>
+        <v>153328.59</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -4437,7 +4469,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tjnyhome</t>
+          <t>TJnyhameUS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4456,13 +4488,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>6464</v>
+        <v>36</v>
       </c>
       <c r="G104" t="n">
-        <v>6464</v>
+        <v>36</v>
       </c>
       <c r="H104" t="n">
-        <v>229136.49</v>
+        <v>797.4299999999999</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -4476,7 +4508,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>YIDUQQ</t>
+          <t>Tjnyhome</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4495,13 +4527,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12618</v>
+        <v>6464</v>
       </c>
       <c r="G105" t="n">
-        <v>12618</v>
+        <v>6464</v>
       </c>
       <c r="H105" t="n">
-        <v>395863.79</v>
+        <v>229136.49</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4515,7 +4547,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>All F Home</t>
+          <t>YIDUQQ</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4525,18 +4557,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025-05</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F106" t="n">
-        <v>1170</v>
+        <v>12618</v>
       </c>
       <c r="G106" t="n">
-        <v>1170</v>
+        <v>12618</v>
       </c>
       <c r="H106" t="n">
-        <v>5724.15000000001</v>
+        <v>395863.79</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -4550,7 +4586,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>QingDaoQianMiao</t>
+          <t>All F Home</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4563,15 +4599,19 @@
           <t>2025-05</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="F107" t="n">
-        <v>3239</v>
+        <v>1166</v>
       </c>
       <c r="G107" t="n">
-        <v>3239</v>
+        <v>1166</v>
       </c>
       <c r="H107" t="n">
-        <v>125092.61</v>
+        <v>4900.67</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4585,7 +4625,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TianJiNengYuan</t>
+          <t>QingDaoQianMiao</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4598,15 +4638,19 @@
           <t>2025-05</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F108" t="n">
-        <v>1372</v>
+        <v>3235</v>
       </c>
       <c r="G108" t="n">
-        <v>1372</v>
+        <v>3235</v>
       </c>
       <c r="H108" t="n">
-        <v>60783.02</v>
+        <v>104080.42</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -4620,7 +4664,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tjnyhome</t>
+          <t>TianJiNengYuan</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4633,15 +4677,19 @@
           <t>2025-05</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F109" t="n">
-        <v>3059</v>
+        <v>1368</v>
       </c>
       <c r="G109" t="n">
-        <v>3059</v>
+        <v>1368</v>
       </c>
       <c r="H109" t="n">
-        <v>149523.4800000001</v>
+        <v>53181.64</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -4655,7 +4703,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>YIDUQQ</t>
+          <t>Tjnyhome</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4674,13 +4722,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>7942</v>
+        <v>3055</v>
       </c>
       <c r="G110" t="n">
-        <v>7942</v>
+        <v>3055</v>
       </c>
       <c r="H110" t="n">
-        <v>314446.01</v>
+        <v>133044.35</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -4694,7 +4742,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>All F Home 6月</t>
+          <t>YIDUQQ</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4704,18 +4752,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F111" t="n">
-        <v>1014</v>
+        <v>7942</v>
       </c>
       <c r="G111" t="n">
-        <v>1014</v>
+        <v>7942</v>
       </c>
       <c r="H111" t="n">
-        <v>5438.28</v>
+        <v>314405.43</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -4729,7 +4781,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>QingDaoQianMiao 6月</t>
+          <t>All F Home 6月</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4742,15 +4794,19 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="F112" t="n">
-        <v>1305</v>
+        <v>1011</v>
       </c>
       <c r="G112" t="n">
-        <v>1305</v>
+        <v>1011</v>
       </c>
       <c r="H112" t="n">
-        <v>47172.83000000003</v>
+        <v>4595.45</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -4764,7 +4820,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TianJiNengYuan 6月</t>
+          <t>QingDaoQianMiao 6月</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4777,15 +4833,19 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F113" t="n">
-        <v>1470</v>
+        <v>1302</v>
       </c>
       <c r="G113" t="n">
-        <v>1470</v>
+        <v>1302</v>
       </c>
       <c r="H113" t="n">
-        <v>69248.00999999999</v>
+        <v>40008.95</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -4799,7 +4859,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tjnyhome 6月</t>
+          <t>TianJiNengYuan 6月</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4812,15 +4872,19 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F114" t="n">
-        <v>3583</v>
+        <v>1467</v>
       </c>
       <c r="G114" t="n">
-        <v>3583</v>
+        <v>1467</v>
       </c>
       <c r="H114" t="n">
-        <v>174515.6200000002</v>
+        <v>61884.5</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -4834,7 +4898,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>YIDUQQ 6月</t>
+          <t>Tjnyhome 6月</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4847,15 +4911,19 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F115" t="n">
-        <v>7239</v>
+        <v>3581</v>
       </c>
       <c r="G115" t="n">
-        <v>7239</v>
+        <v>3581</v>
       </c>
       <c r="H115" t="n">
-        <v>333423.9099999998</v>
+        <v>157596.9</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -4869,7 +4937,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>All F Home</t>
+          <t>YIDUQQ 6月</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4879,22 +4947,22 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>891</v>
+        <v>7235</v>
       </c>
       <c r="G116" t="n">
-        <v>891</v>
+        <v>7235</v>
       </c>
       <c r="H116" t="n">
-        <v>3825.62</v>
+        <v>299693.04</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -4908,7 +4976,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Boutique local</t>
+          <t>All F Home</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4923,17 +4991,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>591</v>
+        <v>891</v>
       </c>
       <c r="G117" t="n">
-        <v>591</v>
+        <v>891</v>
       </c>
       <c r="H117" t="n">
-        <v>11015.46</v>
+        <v>3825.62</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -4947,7 +5015,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>QingDaoQianMiao</t>
+          <t>Boutique local</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4966,13 +5034,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1134</v>
+        <v>591</v>
       </c>
       <c r="G118" t="n">
-        <v>1134</v>
+        <v>591</v>
       </c>
       <c r="H118" t="n">
-        <v>32228.18</v>
+        <v>11015.46</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -4986,7 +5054,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TianJiNengYuan</t>
+          <t>QingDaoQianMiao</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5005,13 +5073,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2764</v>
+        <v>1134</v>
       </c>
       <c r="G119" t="n">
-        <v>2764</v>
+        <v>1134</v>
       </c>
       <c r="H119" t="n">
-        <v>116464.01</v>
+        <v>32228.18</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -5025,7 +5093,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tjnyhome</t>
+          <t>TianJiNengYuan</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5044,13 +5112,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4832</v>
+        <v>2764</v>
       </c>
       <c r="G120" t="n">
-        <v>4832</v>
+        <v>2764</v>
       </c>
       <c r="H120" t="n">
-        <v>225698.85</v>
+        <v>116464.01</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -5064,7 +5132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>YIDUQQ</t>
+          <t>Tjnyhome</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5083,13 +5151,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>7879</v>
+        <v>4832</v>
       </c>
       <c r="G121" t="n">
-        <v>7879</v>
+        <v>4832</v>
       </c>
       <c r="H121" t="n">
-        <v>374269.13</v>
+        <v>225698.85</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -5103,7 +5171,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>All F Home</t>
+          <t>YIDUQQ</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5113,22 +5181,22 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>12</v>
+        <v>7882</v>
       </c>
       <c r="G122" t="n">
-        <v>12</v>
+        <v>7882</v>
       </c>
       <c r="H122" t="n">
-        <v>14.43</v>
+        <v>373968.47</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -5142,7 +5210,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Hupper Boutique local</t>
+          <t>All F Home</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5157,17 +5225,17 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>571</v>
+        <v>12</v>
       </c>
       <c r="G123" t="n">
-        <v>571</v>
+        <v>12</v>
       </c>
       <c r="H123" t="n">
-        <v>18815.47</v>
+        <v>14.43</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -5181,7 +5249,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>QingDaoQianMiao</t>
+          <t>Hupper Boutique local</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5200,13 +5268,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="G124" t="n">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="H124" t="n">
-        <v>8680.379999999999</v>
+        <v>18735.47</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -5220,7 +5288,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TianJiNengYuan</t>
+          <t>QingDaoQianMiao</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5239,13 +5307,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2625</v>
+        <v>286</v>
       </c>
       <c r="G125" t="n">
-        <v>2625</v>
+        <v>286</v>
       </c>
       <c r="H125" t="n">
-        <v>95182.58</v>
+        <v>8680.379999999999</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -5259,7 +5327,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TJnyhameUS</t>
+          <t>TianJiNengYuan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5269,7 +5337,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5278,13 +5346,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>497</v>
+        <v>2628</v>
       </c>
       <c r="G126" t="n">
-        <v>497</v>
+        <v>2628</v>
       </c>
       <c r="H126" t="n">
-        <v>27507.18</v>
+        <v>95109.28999999999</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -5298,7 +5366,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tjnyhome</t>
+          <t>TJnyhameUS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5317,13 +5385,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3824</v>
+        <v>497</v>
       </c>
       <c r="G127" t="n">
-        <v>3824</v>
+        <v>497</v>
       </c>
       <c r="H127" t="n">
-        <v>172071.89</v>
+        <v>27507.18</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -5337,7 +5405,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>YIDUQQ</t>
+          <t>Tjnyhome</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5356,13 +5424,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>6984</v>
+        <v>3825</v>
       </c>
       <c r="G128" t="n">
-        <v>6984</v>
+        <v>3825</v>
       </c>
       <c r="H128" t="n">
-        <v>316875.81</v>
+        <v>171991.89</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -5376,7 +5444,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>All F Home</t>
+          <t>YIDUQQ</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5386,22 +5454,22 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>321</v>
+        <v>6984</v>
       </c>
       <c r="G129" t="n">
-        <v>321</v>
+        <v>6984</v>
       </c>
       <c r="H129" t="n">
-        <v>1989.98</v>
+        <v>316836.05</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -5415,7 +5483,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Boutique local</t>
+          <t>All F Home</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5430,17 +5498,17 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>588</v>
+        <v>322</v>
       </c>
       <c r="G130" t="n">
-        <v>588</v>
+        <v>322</v>
       </c>
       <c r="H130" t="n">
-        <v>15505.76</v>
+        <v>1979.98</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -5454,7 +5522,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>QingDaoQianMiao</t>
+          <t>Boutique local</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5479,7 +5547,7 @@
         <v>588</v>
       </c>
       <c r="H131" t="n">
-        <v>20012.67</v>
+        <v>15505.76</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -5493,7 +5561,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TianJiNengYuan</t>
+          <t>QingDaoQianMiao</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5512,13 +5580,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2182</v>
+        <v>588</v>
       </c>
       <c r="G132" t="n">
-        <v>2182</v>
+        <v>588</v>
       </c>
       <c r="H132" t="n">
-        <v>82541.60000000001</v>
+        <v>20012.67</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -5532,7 +5600,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TJnyhameUS</t>
+          <t>TianJiNengYuan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5551,13 +5619,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>78</v>
+        <v>2182</v>
       </c>
       <c r="G133" t="n">
-        <v>78</v>
+        <v>2182</v>
       </c>
       <c r="H133" t="n">
-        <v>4351.09</v>
+        <v>82541.60000000001</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -5571,7 +5639,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tjnyhome</t>
+          <t>TJnyhameUS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5590,13 +5658,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3257</v>
+        <v>78</v>
       </c>
       <c r="G134" t="n">
-        <v>3257</v>
+        <v>78</v>
       </c>
       <c r="H134" t="n">
-        <v>137788.42</v>
+        <v>4351.09</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -5610,7 +5678,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>YIDUQQ</t>
+          <t>Tjnyhome</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5629,13 +5697,13 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>10335</v>
+        <v>3257</v>
       </c>
       <c r="G135" t="n">
-        <v>10335</v>
+        <v>3257</v>
       </c>
       <c r="H135" t="n">
-        <v>480614.83</v>
+        <v>137788.42</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -5644,17 +5712,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>shein</t>
+          <t>temu</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>天基希音DE</t>
+          <t>YIDUQQ</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GLOBAL</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5664,17 +5732,17 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>51</v>
+        <v>10336</v>
       </c>
       <c r="G136" t="n">
-        <v>51</v>
+        <v>10336</v>
       </c>
       <c r="H136" t="n">
-        <v>487.59</v>
+        <v>480486.69</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -5688,32 +5756,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>天基希音UK</t>
+          <t>天基希音DE</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>813</v>
+        <v>51</v>
       </c>
       <c r="G137" t="n">
-        <v>813</v>
+        <v>51</v>
       </c>
       <c r="H137" t="n">
-        <v>4108.46</v>
+        <v>487.59</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -5727,12 +5795,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>天基谊度DE</t>
+          <t>天基希音UK</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5742,17 +5810,17 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>21</v>
+        <v>813</v>
       </c>
       <c r="G138" t="n">
-        <v>21</v>
+        <v>813</v>
       </c>
       <c r="H138" t="n">
-        <v>179.37</v>
+        <v>4108.46</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -5766,12 +5834,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>天基谊度UK</t>
+          <t>天基谊度DE</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5781,17 +5849,17 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="G139" t="n">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="H139" t="n">
-        <v>994.59</v>
+        <v>179.37</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -5805,7 +5873,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>天基希音UK</t>
+          <t>天基谊度UK</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5815,7 +5883,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5824,13 +5892,13 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>703</v>
+        <v>169</v>
       </c>
       <c r="G140" t="n">
-        <v>703</v>
+        <v>169</v>
       </c>
       <c r="H140" t="n">
-        <v>3714.2</v>
+        <v>994.59</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -5844,32 +5912,32 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>天基谊度DE</t>
+          <t>天基希音UK</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>16</v>
+        <v>703</v>
       </c>
       <c r="G141" t="n">
-        <v>16</v>
+        <v>703</v>
       </c>
       <c r="H141" t="n">
-        <v>142.12</v>
+        <v>3714.2</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -5883,32 +5951,32 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>天基谊度UK</t>
+          <t>天基谊度DE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="G142" t="n">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="H142" t="n">
-        <v>1460.49</v>
+        <v>142.12</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -5922,7 +5990,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>天基希音UK</t>
+          <t>天基谊度UK</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5932,7 +6000,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5941,13 +6009,13 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>879</v>
+        <v>229</v>
       </c>
       <c r="G143" t="n">
-        <v>879</v>
+        <v>229</v>
       </c>
       <c r="H143" t="n">
-        <v>4000.43</v>
+        <v>1460.49</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -5961,32 +6029,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>天基谊度DE</t>
+          <t>天基希音UK</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>17</v>
+        <v>879</v>
       </c>
       <c r="G144" t="n">
-        <v>17</v>
+        <v>879</v>
       </c>
       <c r="H144" t="n">
-        <v>92.47</v>
+        <v>4000.43</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -6000,32 +6068,32 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>天基谊度UK</t>
+          <t>天基谊度DE</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="G145" t="n">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="H145" t="n">
-        <v>1472.62</v>
+        <v>92.47</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -6039,32 +6107,32 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>天基希音DE</t>
+          <t>天基谊度UK</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>998</v>
+        <v>235</v>
       </c>
       <c r="G146" t="n">
-        <v>998</v>
+        <v>235</v>
       </c>
       <c r="H146" t="n">
-        <v>10859.89</v>
+        <v>1472.62</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -6078,12 +6146,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>天基希音UK</t>
+          <t>天基希音DE</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6093,17 +6161,17 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>901</v>
+        <v>998</v>
       </c>
       <c r="G147" t="n">
-        <v>901</v>
+        <v>998</v>
       </c>
       <c r="H147" t="n">
-        <v>9587.08</v>
+        <v>10859.89</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -6117,32 +6185,32 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>天基希音DE</t>
+          <t>天基希音UK</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>126</v>
+        <v>901</v>
       </c>
       <c r="G148" t="n">
-        <v>126</v>
+        <v>901</v>
       </c>
       <c r="H148" t="n">
-        <v>1629.72</v>
+        <v>9587.08</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -6156,12 +6224,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>天基希音UK 6月</t>
+          <t>天基希音DE</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6171,17 +6239,17 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1594</v>
+        <v>126</v>
       </c>
       <c r="G149" t="n">
-        <v>1594</v>
+        <v>126</v>
       </c>
       <c r="H149" t="n">
-        <v>15345.14</v>
+        <v>1629.72</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -6195,32 +6263,32 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>天基希音DE</t>
+          <t>天基希音UK 6月</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>91</v>
+        <v>1594</v>
       </c>
       <c r="G150" t="n">
-        <v>91</v>
+        <v>1594</v>
       </c>
       <c r="H150" t="n">
-        <v>1123.93</v>
+        <v>15345.14</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -6234,12 +6302,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>天基希音UK</t>
+          <t>天基希音DE</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6249,17 +6317,17 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1334</v>
+        <v>91</v>
       </c>
       <c r="G151" t="n">
-        <v>1334</v>
+        <v>91</v>
       </c>
       <c r="H151" t="n">
-        <v>15135.61</v>
+        <v>1123.93</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -6273,12 +6341,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>天基希音DE</t>
+          <t>天基希音UK</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6288,17 +6356,17 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>48</v>
+        <v>1334</v>
       </c>
       <c r="G152" t="n">
-        <v>48</v>
+        <v>1334</v>
       </c>
       <c r="H152" t="n">
-        <v>701.63</v>
+        <v>15135.61</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -6312,12 +6380,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>天基希音UK</t>
+          <t>天基希音DE</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6327,17 +6395,17 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1143</v>
+        <v>48</v>
       </c>
       <c r="G153" t="n">
-        <v>1143</v>
+        <v>48</v>
       </c>
       <c r="H153" t="n">
-        <v>8839.67</v>
+        <v>701.63</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -6351,32 +6419,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>天基希音US</t>
+          <t>天基希音UK</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>6</v>
+        <v>1143</v>
       </c>
       <c r="G154" t="n">
-        <v>6</v>
+        <v>1143</v>
       </c>
       <c r="H154" t="n">
-        <v>63.5</v>
+        <v>8839.67</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -6390,32 +6458,32 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>天基希音DE</t>
+          <t>天基希音US</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="G155" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="H155" t="n">
-        <v>988.97</v>
+        <v>63.5</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -6429,32 +6497,32 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>天基希音UK</t>
+          <t>天基希音DE</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1390</v>
+        <v>76</v>
       </c>
       <c r="G156" t="n">
-        <v>1390</v>
+        <v>76</v>
       </c>
       <c r="H156" t="n">
-        <v>8675.940000000001</v>
+        <v>988.97</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -6468,12 +6536,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>天基希音US</t>
+          <t>天基希音UK</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6483,17 +6551,17 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>14</v>
+        <v>1390</v>
       </c>
       <c r="G157" t="n">
-        <v>14</v>
+        <v>1390</v>
       </c>
       <c r="H157" t="n">
-        <v>227.16</v>
+        <v>8675.940000000001</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -6507,12 +6575,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>谊度科技希音店DE</t>
+          <t>天基希音US</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6522,17 +6590,17 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G158" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H158" t="n">
-        <v>375.33</v>
+        <v>227.16</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -6546,32 +6614,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>谊度科技希音店UK</t>
+          <t>谊度科技希音店DE</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="G159" t="n">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H159" t="n">
-        <v>2894.86</v>
+        <v>375.33</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -6580,37 +6648,37 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>managed_store</t>
+          <t>shein</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>天基托管</t>
+          <t>谊度科技希音店UK</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>GLOBAL</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>505</v>
+        <v>378</v>
       </c>
       <c r="G160" t="n">
-        <v>505</v>
+        <v>378</v>
       </c>
       <c r="H160" t="n">
-        <v>47359.45</v>
+        <v>2894.86</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -6624,7 +6692,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>天基托管6月</t>
+          <t>天基托管</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6634,7 +6702,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6643,13 +6711,13 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>265</v>
+        <v>505</v>
       </c>
       <c r="G161" t="n">
-        <v>265</v>
+        <v>505</v>
       </c>
       <c r="H161" t="n">
-        <v>22367.08</v>
+        <v>47359.45</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -6663,7 +6731,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>天基托管</t>
+          <t>天基托管6月</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6673,7 +6741,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6682,13 +6750,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="G162" t="n">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="H162" t="n">
-        <v>13615.83</v>
+        <v>22367.08</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -6721,13 +6789,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G163" t="n">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H163" t="n">
-        <v>11477.12</v>
+        <v>13615.83</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -6751,7 +6819,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6760,13 +6828,13 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="G164" t="n">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="H164" t="n">
-        <v>7591.81</v>
+        <v>11477.12</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -6775,39 +6843,78 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>managed_store</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>天基托管</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>GLOBAL</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>94</v>
+      </c>
+      <c r="G165" t="n">
+        <v>94</v>
+      </c>
+      <c r="H165" t="n">
+        <v>7591.81</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
           <t>aliexpress</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>速卖通</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>GLOBAL</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>2025-09</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="F165" t="n">
+      <c r="F166" t="n">
         <v>95</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G166" t="n">
         <v>95</v>
       </c>
-      <c r="H165" t="n">
+      <c r="H166" t="n">
         <v>7888.81</v>
       </c>
-      <c r="I165" t="n">
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6822,7 +6929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6831,37 +6938,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>月份</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>仓库</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>区域</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>履约成本合计</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>币种</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>记录数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>文件数</t>
         </is>
@@ -6870,7 +6977,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6884,7 +6991,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1272.366</v>
+        <v>102.447</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6892,7 +6999,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -6901,38 +7008,38 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12974.07</v>
+        <v>6489.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6946,7 +7053,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4254.273</v>
+        <v>4216.3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6954,52 +7061,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49557.69</v>
+        <v>1294.76022592</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7008,7 +7115,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15359.864</v>
+        <v>12974.07</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -7016,21 +7123,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1817</v>
+        <v>99</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7039,7 +7146,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23590.24</v>
+        <v>10464.043</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -7047,21 +7154,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>618</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7070,7 +7177,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20721.913</v>
+        <v>49557.69</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -7078,38 +7185,38 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2346</v>
+        <v>87</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LHZ</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3592.099999999999</v>
+        <v>14245.328</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -7118,43 +7225,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>104848.22351</v>
+        <v>2220.551</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3696</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7163,7 +7270,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1534.694</v>
+        <v>23590.24</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -7171,16 +7278,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>336</v>
+        <v>618</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7194,7 +7301,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34180.538</v>
+        <v>20368.098</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -7202,7 +7309,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5343</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -7211,7 +7318,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7225,7 +7332,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1764.2</v>
+        <v>2239.845999999999</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -7233,7 +7340,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -7242,7 +7349,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7256,7 +7363,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>75399.54442000001</v>
+        <v>104848.22351</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -7264,7 +7371,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2536</v>
+        <v>3696</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -7273,7 +7380,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7287,7 +7394,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>845.999</v>
+        <v>1534.694</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -7295,7 +7402,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>481</v>
+        <v>336</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -7304,7 +7411,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7318,7 +7425,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21458.435</v>
+        <v>12672.069</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -7326,7 +7433,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3866</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -7335,7 +7442,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7349,7 +7456,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3014.7</v>
+        <v>1340.964</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -7357,7 +7464,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -7366,7 +7473,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7380,7 +7487,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>99004.63758</v>
+        <v>75399.54442000001</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -7388,16 +7495,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3032</v>
+        <v>2536</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7411,7 +7518,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1067.617</v>
+        <v>845.999</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -7419,7 +7526,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>542</v>
+        <v>481</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -7428,7 +7535,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7442,7 +7549,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27197.672</v>
+        <v>17542.4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -7450,7 +7557,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4809</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -7459,7 +7566,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7473,7 +7580,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4098</v>
+        <v>1867.9</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -7481,7 +7588,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -7490,7 +7597,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7504,7 +7611,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>74440.86003</v>
+        <v>78342.21593000001</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -7512,7 +7619,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3429</v>
+        <v>2314</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -7521,29 +7628,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>京东</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1067.617</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>154</v>
+        <v>542</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -7557,7 +7664,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7566,7 +7673,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1300.14</v>
+        <v>18999.808</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -7574,7 +7681,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>765</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -7583,29 +7690,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29252.528</v>
+        <v>2704.83</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5336</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -7614,69 +7721,69 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LHZ</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1415</v>
+        <v>74440.86003</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>64</v>
+        <v>3429</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>京东</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>79514.83893</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5245</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -7690,7 +7797,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>868.971</v>
+        <v>1300.14</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -7698,7 +7805,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>372</v>
+        <v>765</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -7707,7 +7814,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -7721,7 +7828,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>21552.363</v>
+        <v>13763.771</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -7729,7 +7836,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4359</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -7738,43 +7845,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71132.39468</v>
+        <v>1279.189</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4211</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7783,7 +7890,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1122.2</v>
+        <v>79514.83893</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -7791,38 +7898,38 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>596</v>
+        <v>5245</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>奥韵汇</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>20577.795</v>
+        <v>1809.852</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3993</v>
+        <v>237</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -7831,12 +7938,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7845,7 +7952,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>43962.43333</v>
+        <v>868.971</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -7853,21 +7960,21 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2340</v>
+        <v>372</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7876,7 +7983,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>549.703</v>
+        <v>14119.885</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -7884,7 +7991,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -7893,29 +8000,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12487.939</v>
+        <v>1384</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2632</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -7924,7 +8031,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7938,7 +8045,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>35225.48926</v>
+        <v>71132.39468</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7946,7 +8053,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1543</v>
+        <v>4211</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -7955,60 +8062,60 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>东方嘉盛</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>377.689</v>
+        <v>718.33</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>204</v>
+        <v>1606</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>奥韵汇</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>19566.337</v>
+        <v>4848.367</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3182</v>
+        <v>2410</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -8017,12 +8124,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8031,7 +8138,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>38273.66821</v>
+        <v>1122.2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -8039,38 +8146,38 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2097</v>
+        <v>596</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>京东</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>731.0934999999999</v>
+        <v>8288.278</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -8079,12 +8186,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8093,7 +8200,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>353.945</v>
+        <v>43962.43333</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -8101,109 +8208,109 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>186</v>
+        <v>2340</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>东方嘉盛</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>28542.971</v>
+        <v>-273.1300000000002</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4952</v>
+        <v>3000</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>奥韵汇</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>35526.95081</v>
+        <v>2896.502</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2656</v>
+        <v>1783</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>京东</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2712.305434</v>
+        <v>549.703</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2116</v>
+        <v>311</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8217,7 +8324,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>27289.827</v>
+        <v>12431.467</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -8225,7 +8332,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5148</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -8234,7 +8341,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8248,7 +8355,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>24487.77449</v>
+        <v>35225.48926</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -8256,7 +8363,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1361</v>
+        <v>1543</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -8265,21 +8372,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>京东</t>
+          <t>东方嘉盛</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1380.407621</v>
+        <v>932.55</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -8287,38 +8394,38 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1416</v>
+        <v>3000</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>奥韵汇</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42160.074</v>
+        <v>2427.939</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>7391</v>
+        <v>2552</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -8327,12 +8434,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8341,7 +8448,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29942.66032</v>
+        <v>377.689</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -8349,41 +8456,661 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2100</v>
+        <v>204</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>17453.191</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TSP</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>38273.66821</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>2097</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>东方嘉盛</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>-1115.26</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>731.0934999999999</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>奥韵汇</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>13749.342</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2263</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>海洋</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>353.945</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>186</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>17302.714</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TSP</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>35526.95081</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2656</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>东方嘉盛</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>47.5599999999996</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2712.307528</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>20</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>奥韵汇</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2386.464</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>4154</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>26185.921</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>LHZ</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>3978.276000000003</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TSP</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>24487.77449</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>东方嘉盛</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1234.810000000002</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1380.410135</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>11</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>奥韵汇</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>11170.955</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>6864</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>2025-12</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TSP</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>24297.43502</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1706</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>东方嘉盛</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>-767.2699999999999</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>京东</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>998.982261</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="D69" t="n">
+        <v>998.983053</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>1221</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="F69" t="n">
+        <v>15</v>
+      </c>
+      <c r="G69" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>奥韵汇</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>12321.804</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>10027</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8406,27 +9133,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>月份</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>平台总收入</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>仓库总成本</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>毛利(不含商品成本)</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
@@ -8435,17 +9162,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14246.436</v>
+        <v>6592.147</v>
       </c>
       <c r="D2" t="n">
-        <v>-14246.436</v>
+        <v>-6592.147</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -8456,17 +9183,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53811.963</v>
+        <v>18485.13022592</v>
       </c>
       <c r="D3" t="n">
-        <v>-53811.963</v>
+        <v>-18485.13022592</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -8477,17 +9204,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>38950.104</v>
+        <v>60021.733</v>
       </c>
       <c r="D4" t="n">
-        <v>-38950.104</v>
+        <v>-60021.733</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -8498,17 +9225,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>130696.93051</v>
+        <v>40056.119</v>
       </c>
       <c r="D5" t="n">
-        <v>-130696.93051</v>
+        <v>-40056.119</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -8519,17 +9246,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>112190.28142</v>
+        <v>128990.86151</v>
       </c>
       <c r="D6" t="n">
-        <v>-112190.28142</v>
+        <v>-128990.86151</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -8540,17 +9267,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>124545.38958</v>
+        <v>90258.57642</v>
       </c>
       <c r="D7" t="n">
-        <v>-124545.38958</v>
+        <v>-90258.57642</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -8561,38 +9288,38 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>132911.19</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>107036.67203</v>
+        <v>98820.13293000001</v>
       </c>
       <c r="D8" t="n">
-        <v>25874.51797</v>
+        <v>-98820.13293000001</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>不含SKU采购成本</t>
+          <t>⚠️ 该月无平台收入数据</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>794009.1700000002</v>
+        <v>132911.19</v>
       </c>
       <c r="C9" t="n">
-        <v>111051.33793</v>
+        <v>97445.63803</v>
       </c>
       <c r="D9" t="n">
-        <v>682957.8320700001</v>
+        <v>35465.55197</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -8603,17 +9330,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680844.42</v>
+        <v>748052.41</v>
       </c>
       <c r="C10" t="n">
-        <v>93806.95768000001</v>
+        <v>97236.62192999999</v>
       </c>
       <c r="D10" t="n">
-        <v>587037.46232</v>
+        <v>650815.78807</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -8624,17 +9351,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1026961.5</v>
+        <v>609727.1800000001</v>
       </c>
       <c r="C11" t="n">
-        <v>65089.93133</v>
+        <v>93325.17668</v>
       </c>
       <c r="D11" t="n">
-        <v>961871.5686699999</v>
+        <v>516402.00332</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -8645,17 +9372,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611704.0600000001</v>
+        <v>987582.86</v>
       </c>
       <c r="C12" t="n">
-        <v>48091.11726</v>
+        <v>55423.78633</v>
       </c>
       <c r="D12" t="n">
-        <v>563612.94274</v>
+        <v>932159.07367</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -8666,17 +9393,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760549.01</v>
+        <v>640398.6800000001</v>
       </c>
       <c r="C13" t="n">
-        <v>58925.04371</v>
+        <v>51395.13426</v>
       </c>
       <c r="D13" t="n">
-        <v>701623.96629</v>
+        <v>589003.54574</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -8687,17 +9414,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>913267.89</v>
+        <v>784935.85</v>
       </c>
       <c r="C14" t="n">
-        <v>66782.22724399999</v>
+        <v>69445.97971</v>
       </c>
       <c r="D14" t="n">
-        <v>846485.6627559999</v>
+        <v>715489.87029</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -8708,17 +9435,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1448650.03</v>
+        <v>913068.66</v>
       </c>
       <c r="C15" t="n">
-        <v>53158.009111</v>
+        <v>57975.996338</v>
       </c>
       <c r="D15" t="n">
-        <v>1395492.020889</v>
+        <v>855092.663662</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -8729,17 +9456,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1030546.57</v>
+        <v>1452083.64</v>
       </c>
       <c r="C16" t="n">
-        <v>73101.716581</v>
+        <v>68438.14662500001</v>
       </c>
       <c r="D16" t="n">
-        <v>957444.8534190001</v>
+        <v>1383645.493375</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -8750,21 +9477,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>531.92</v>
+        <v>1025032.68</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>36850.952073</v>
       </c>
       <c r="D17" t="n">
-        <v>531.92</v>
+        <v>988181.727927</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>⚠️ 该月无仓库成本数据</t>
+          <t>不含SKU采购成本</t>
         </is>
       </c>
     </row>
@@ -8788,12 +9515,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>项目</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>说明</t>
         </is>

--- a/output/月度核算报表_Phase2.xlsx
+++ b/output/月度核算报表_Phase2.xlsx
@@ -6929,7 +6929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LHZ</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6489.7</v>
+        <v>4563.06</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -7033,38 +7033,38 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4216.3</v>
+        <v>6489.7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7075,27 +7075,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LHZ</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1294.76022592</v>
+        <v>4216.3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -7106,51 +7106,51 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12974.07</v>
+        <v>6164.56</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10464.043</v>
+        <v>1294.76022592</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7163,7 +7163,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>49557.69</v>
+        <v>12974.07</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -7194,12 +7194,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14245.328</v>
+        <v>1986</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -7225,25 +7225,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LHZ</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2220.551</v>
+        <v>10464.043</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -7256,56 +7256,56 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>23590.24</v>
+        <v>8928.690000000001</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>618</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20368.098</v>
+        <v>3978.276000000003</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -7318,43 +7318,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LHZ</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2239.845999999999</v>
+        <v>49557.69</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>104848.22351</v>
+        <v>1324.592</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -7371,21 +7371,21 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3696</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1534.694</v>
+        <v>14245.328</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>336</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -7411,38 +7411,38 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12672.069</v>
+        <v>8791.209999999999</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1340.964</v>
+        <v>2220.551</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>75399.54442000001</v>
+        <v>23590.24</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -7495,16 +7495,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2536</v>
+        <v>618</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>845.999</v>
+        <v>880.22</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>481</v>
+        <v>409</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -7535,7 +7535,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17542.4</v>
+        <v>20368.098</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -7566,12 +7566,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LHZ</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7580,7 +7580,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1867.9</v>
+        <v>25294.74</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -7591,49 +7591,49 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78342.21593000001</v>
+        <v>2239.845999999999</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2314</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1067.617</v>
+        <v>104848.22351</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -7650,21 +7650,21 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>542</v>
+        <v>3696</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7673,7 +7673,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>18999.808</v>
+        <v>767.347</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -7690,25 +7690,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LHZ</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2704.83</v>
+        <v>12672.069</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -7721,60 +7721,60 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>74440.86003</v>
+        <v>19513.48</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3429</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>京东</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1340.964</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -7783,12 +7783,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1300.14</v>
+        <v>75399.54442000001</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -7805,21 +7805,21 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>765</v>
+        <v>2536</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13763.771</v>
+        <v>845.999</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>481</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -7845,25 +7845,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LHZ</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1279.189</v>
+        <v>17542.4</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7876,43 +7876,43 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>79514.83893</v>
+        <v>19563.59</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5245</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>奥韵汇</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1809.852</v>
+        <v>1867.9</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -7938,12 +7938,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>868.971</v>
+        <v>78624.71593000001</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -7960,69 +7960,69 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>372</v>
+        <v>2314</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>京东</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>14119.885</v>
+        <v>1464.63</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LHZ</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1384</v>
+        <v>1067.617</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>542</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -8031,12 +8031,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8045,7 +8045,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>71132.39468</v>
+        <v>18999.808</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8053,38 +8053,38 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4211</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>东方嘉盛</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>718.33</v>
+        <v>16425.57</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1606</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -8093,12 +8093,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>奥韵汇</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4848.367</v>
+        <v>2704.83</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2410</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -8124,12 +8124,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8138,7 +8138,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1122.2</v>
+        <v>74440.86003</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -8146,52 +8146,52 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>596</v>
+        <v>3429</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>京东</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8288.278</v>
+        <v>940.73</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>43962.43333</v>
+        <v>1300.14</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -8208,52 +8208,52 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2340</v>
+        <v>765</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>东方嘉盛</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-273.1300000000002</v>
+        <v>13763.771</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>奥韵汇</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2896.502</v>
+        <v>22946.23</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -8270,38 +8270,38 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1783</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>549.703</v>
+        <v>1279.189</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -8310,12 +8310,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12431.467</v>
+        <v>79514.83893</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -8332,61 +8332,61 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>5245</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>东方嘉盛</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>35225.48926</v>
+        <v>2111.75</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1543</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>东方嘉盛</t>
+          <t>京东</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>932.55</v>
+        <v>3721.64</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -8394,16 +8394,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -8417,7 +8417,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2427.939</v>
+        <v>1809.852</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2552</v>
+        <v>237</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -8434,7 +8434,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>377.689</v>
+        <v>868.971</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>204</v>
+        <v>372</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -8465,7 +8465,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -8479,7 +8479,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>17453.191</v>
+        <v>14119.885</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -8496,184 +8496,184 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>38273.66821</v>
+        <v>17294.51</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2097</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>东方嘉盛</t>
+          <t>LHZ</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-1115.26</v>
+        <v>1384</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>京东</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>731.0934999999999</v>
+        <v>71877.39468</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>4211</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>奥韵汇</t>
+          <t>东方嘉盛</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>13749.342</v>
+        <v>1495.02</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2263</v>
+        <v>1853</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>京东</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>353.945</v>
+        <v>2016.97</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>奥韵汇</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>17302.714</v>
+        <v>4848.367</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2410</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -8682,12 +8682,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>35526.95081</v>
+        <v>1122.2</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -8704,38 +8704,38 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2656</v>
+        <v>596</v>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>东方嘉盛</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>47.5599999999996</v>
+        <v>8288.278</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -8744,91 +8744,91 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>京东</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2712.307528</v>
+        <v>19891.91</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>奥韵汇</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2386.464</v>
+        <v>43962.43333</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4154</v>
+        <v>2340</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>东方嘉盛</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>26185.921</v>
+        <v>2422.61</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>3159</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -8837,136 +8837,136 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LHZ</t>
+          <t>京东</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3978.276000000003</v>
+        <v>2456.2</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TSP</t>
+          <t>奥韵汇</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>24487.77449</v>
+        <v>2896.502</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1361</v>
+        <v>1783</v>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>东方嘉盛</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1234.810000000002</v>
+        <v>549.703</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3000</v>
+        <v>311</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>京东</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1380.410135</v>
+        <v>12431.467</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>奥韵汇</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8975,7 +8975,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>11170.955</v>
+        <v>29861.77</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -8983,16 +8983,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>6864</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9006,7 +9006,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>24297.43502</v>
+        <v>35225.48926</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1706</v>
+        <v>1543</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -9023,7 +9023,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-767.2699999999999</v>
+        <v>1450.35</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -9045,16 +9045,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2000</v>
+        <v>3284</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9068,7 +9068,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>998.983053</v>
+        <v>2494.16</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -9076,40 +9076,815 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>奥韵汇</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2427.939</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>2552</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>海洋</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>377.689</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>204</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>17453.191</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>16777.09</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TSP</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>38273.66821</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>2097</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>东方嘉盛</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2597.11</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1906</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2349.69</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>4</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>奥韵汇</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>13749.342</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>2263</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>海洋</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>353.945</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>186</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>17302.714</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>8786.41</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TSP</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>35526.95081</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>2656</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>东方嘉盛</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1025.5</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1215</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>3175.66</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>奥韵汇</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2386.464</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>4154</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>海洋</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1123.99</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>26185.921</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>4655.58</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TSP</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>24487.77449</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>东方嘉盛</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2266.86</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>2725</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1599.84</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>奥韵汇</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>11170.955</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>6864</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>2025-12</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TSP</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>24297.43502</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1706</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>东方嘉盛</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>625.89</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1435</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>京东</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1158.42</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>奥韵汇</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D95" t="n">
         <v>12321.804</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="F95" t="n">
         <v>10027</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G95" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9169,10 +9944,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6592.147</v>
+        <v>11155.207</v>
       </c>
       <c r="D2" t="n">
-        <v>-6592.147</v>
+        <v>-11155.207</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -9190,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>18485.13022592</v>
+        <v>26635.69022592</v>
       </c>
       <c r="D3" t="n">
-        <v>-18485.13022592</v>
+        <v>-26635.69022592</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -9211,10 +9986,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>60021.733</v>
+        <v>74253.291</v>
       </c>
       <c r="D4" t="n">
-        <v>-60021.733</v>
+        <v>-74253.291</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -9232,10 +10007,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>40056.119</v>
+        <v>49727.549</v>
       </c>
       <c r="D5" t="n">
-        <v>-40056.119</v>
+        <v>-49727.549</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -9253,10 +10028,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>128990.86151</v>
+        <v>153518.25451</v>
       </c>
       <c r="D6" t="n">
-        <v>-128990.86151</v>
+        <v>-153518.25451</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -9274,10 +10049,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>90258.57642</v>
+        <v>109772.05642</v>
       </c>
       <c r="D7" t="n">
-        <v>-90258.57642</v>
+        <v>-109772.05642</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -9295,10 +10070,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>98820.13293000001</v>
+        <v>120130.85293</v>
       </c>
       <c r="D8" t="n">
-        <v>-98820.13293000001</v>
+        <v>-120130.85293</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -9316,10 +10091,10 @@
         <v>132911.19</v>
       </c>
       <c r="C9" t="n">
-        <v>97445.63803</v>
+        <v>114811.93803</v>
       </c>
       <c r="D9" t="n">
-        <v>35465.55197</v>
+        <v>18099.25197</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -9337,10 +10112,10 @@
         <v>748052.41</v>
       </c>
       <c r="C10" t="n">
-        <v>97236.62192999999</v>
+        <v>126016.24193</v>
       </c>
       <c r="D10" t="n">
-        <v>650815.78807</v>
+        <v>622036.16807</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -9358,10 +10133,10 @@
         <v>609727.1800000001</v>
       </c>
       <c r="C11" t="n">
-        <v>93325.17668</v>
+        <v>114158.34668</v>
       </c>
       <c r="D11" t="n">
-        <v>516402.00332</v>
+        <v>495568.83332</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -9379,10 +10154,10 @@
         <v>987582.86</v>
       </c>
       <c r="C12" t="n">
-        <v>55423.78633</v>
+        <v>80467.63632999999</v>
       </c>
       <c r="D12" t="n">
-        <v>932159.07367</v>
+        <v>907115.22367</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -9400,10 +10175,10 @@
         <v>640398.6800000001</v>
       </c>
       <c r="C13" t="n">
-        <v>51395.13426</v>
+        <v>84268.86426</v>
       </c>
       <c r="D13" t="n">
-        <v>589003.54574</v>
+        <v>556129.81574</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -9421,10 +10196,10 @@
         <v>784935.85</v>
       </c>
       <c r="C14" t="n">
-        <v>69445.97971</v>
+        <v>91554.03621000001</v>
       </c>
       <c r="D14" t="n">
-        <v>715489.87029</v>
+        <v>693381.81379</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -9442,10 +10217,10 @@
         <v>913068.66</v>
       </c>
       <c r="C15" t="n">
-        <v>57975.996338</v>
+        <v>69327.68881000001</v>
       </c>
       <c r="D15" t="n">
-        <v>855092.663662</v>
+        <v>843740.97119</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -9463,10 +10238,10 @@
         <v>1452083.64</v>
       </c>
       <c r="C16" t="n">
-        <v>68438.14662500001</v>
+        <v>70366.93049</v>
       </c>
       <c r="D16" t="n">
-        <v>1383645.493375</v>
+        <v>1381716.70951</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -9484,10 +10259,10 @@
         <v>1025032.68</v>
       </c>
       <c r="C17" t="n">
-        <v>36850.952073</v>
+        <v>38403.54902</v>
       </c>
       <c r="D17" t="n">
-        <v>988181.727927</v>
+        <v>986629.13098</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
